--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -598,10 +616,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -645,28 +663,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="3">
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -691,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="3">
+      <c r="I20" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -800,10 +818,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -847,28 +865,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="C25" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -893,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1002,10 +1020,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1049,28 +1067,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="3">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1095,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1204,10 +1222,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1251,28 +1269,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1297,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1406,10 +1424,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="3" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1453,28 +1471,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="3">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="3">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1499,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="3">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1608,10 +1626,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="J51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1655,28 +1673,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="3">
+      <c r="C53" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1701,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1810,10 +1828,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="J58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1857,28 +1875,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="3">
+      <c r="A60" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="3">
+      <c r="C60" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1903,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="3">
+      <c r="C62" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="3">
+      <c r="D62" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="3">
+      <c r="I62" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2012,10 +2030,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3" t="s">
+      <c r="J65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2059,28 +2077,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="3">
+      <c r="C67" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2105,28 +2123,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2417,10 +2435,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="3" t="s">
+      <c r="J79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2464,28 +2482,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="3">
+      <c r="A81" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="3">
+      <c r="C81" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2510,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="C83" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="3">
+      <c r="D83" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="3">
+      <c r="I83" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2619,10 +2637,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="3" t="s">
+      <c r="J86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2666,28 +2684,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="3">
+      <c r="C88" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2712,28 +2730,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="3">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2966,10 +2984,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="J98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3013,28 +3031,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="3">
+      <c r="C100" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3059,28 +3077,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3168,10 +3186,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3215,28 +3233,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="3">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="3">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3261,28 +3279,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="3">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="3">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3370,10 +3388,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="3" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3417,28 +3435,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="3">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3463,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="3">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3601,10 +3619,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3648,28 +3666,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3694,28 +3712,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3803,10 +3821,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3850,28 +3868,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3896,28 +3914,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4005,10 +4023,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4052,28 +4070,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4098,28 +4116,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4207,10 +4225,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4254,28 +4272,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4300,28 +4318,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4525,10 +4543,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4572,28 +4590,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4618,28 +4636,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4756,10 +4774,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="3" t="s">
+      <c r="J160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4803,28 +4821,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="3">
+      <c r="C162" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4849,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4958,10 +4976,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="3" t="s">
+      <c r="J167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5005,28 +5023,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="3">
+      <c r="C169" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5051,28 +5069,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5207,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="3" t="s">
+      <c r="J175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5254,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="3">
+      <c r="C177" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5391,10 +5409,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="3" t="s">
+      <c r="J182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5438,28 +5456,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="3">
+      <c r="A184" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="3">
+      <c r="C184" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5484,28 +5502,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="3">
+      <c r="I186" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5669,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="3" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5698,28 +5716,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="3">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="3">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5744,28 +5762,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="3">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="3">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="3">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5853,10 +5871,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5900,28 +5918,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5946,28 +5964,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6055,10 +6073,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6102,28 +6120,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6148,28 +6166,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6257,10 +6275,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6304,28 +6322,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6350,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6459,10 +6477,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6506,28 +6524,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6552,28 +6570,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6661,10 +6679,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="3" t="s">
+      <c r="J226" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6708,28 +6726,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="3">
+      <c r="A228" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="3">
+      <c r="C228" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6754,28 +6772,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="3">
+      <c r="C230" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="3">
+      <c r="D230" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="3">
+      <c r="I230" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6892,10 +6910,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="3" t="s">
+      <c r="J234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6939,28 +6957,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="3">
+      <c r="A236" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="3">
+      <c r="C236" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6985,28 +7003,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="3">
+      <c r="B238" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="3">
+      <c r="C238" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="3">
+      <c r="D238" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="3">
+      <c r="E238" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="3">
+      <c r="F238" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="3">
+      <c r="G238" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="3">
+      <c r="H238" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="3">
+      <c r="I238" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7094,10 +7112,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="3" t="s">
+      <c r="J241" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7141,28 +7159,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="3">
+      <c r="A243" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="3">
+      <c r="B243" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="3">
+      <c r="C243" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="3">
+      <c r="E243" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="3">
+      <c r="F243" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="3">
+      <c r="G243" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="3">
+      <c r="H243" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7187,28 +7205,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="3">
+      <c r="B245" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="3">
+      <c r="C245" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="3">
+      <c r="D245" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="3">
+      <c r="E245" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="3">
+      <c r="F245" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="3">
+      <c r="G245" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="3">
+      <c r="H245" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="3">
+      <c r="I245" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7441,10 +7459,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="3" t="s">
+      <c r="J253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7488,28 +7506,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="3">
+      <c r="A255" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="3">
+      <c r="B255" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="3">
+      <c r="C255" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="3">
+      <c r="E255" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="3">
+      <c r="F255" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="3">
+      <c r="G255" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="3">
+      <c r="H255" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7534,28 +7552,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="3">
+      <c r="B257" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="3">
+      <c r="C257" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="3">
+      <c r="D257" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="3">
+      <c r="E257" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="3">
+      <c r="F257" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="3">
+      <c r="G257" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="3">
+      <c r="H257" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="3">
+      <c r="I257" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7672,10 +7690,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7719,28 +7737,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7765,28 +7783,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7874,10 +7892,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7921,28 +7939,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7967,28 +7985,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8076,10 +8094,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="3" t="s">
+      <c r="J275" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8123,28 +8141,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="3">
+      <c r="A277" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="3">
+      <c r="B277" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="3">
+      <c r="C277" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="3">
+      <c r="E277" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="3">
+      <c r="F277" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="3">
+      <c r="G277" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="3">
+      <c r="H277" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8169,28 +8187,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="3">
+      <c r="C279" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="3">
+      <c r="D279" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="3">
+      <c r="I279" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8249,10 +8267,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="3" t="s">
+      <c r="J281" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -153,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -161,6 +201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -183,26 +231,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true">
-      <c r="A1" t="s" s="6">
+    <row r="1" s="14" customFormat="true">
+      <c r="A1" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" t="s" s="14">
         <v>7</v>
       </c>
     </row>
@@ -230,28 +278,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -276,28 +324,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="I5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -385,10 +433,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -432,28 +480,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="6">
+      <c r="C10" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="6">
+      <c r="E10" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="6">
+      <c r="G10" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="6">
+      <c r="C12" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="6">
+      <c r="D12" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="H12" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="6">
+      <c r="I12" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -616,10 +664,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -663,28 +711,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="6">
+      <c r="C18" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="6">
+      <c r="E18" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="6">
+      <c r="F18" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="6">
+      <c r="G18" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="6">
+      <c r="H18" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -709,28 +757,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="6">
+      <c r="B20" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="6">
+      <c r="C20" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="6">
+      <c r="D20" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="6">
+      <c r="E20" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="6">
+      <c r="F20" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="6">
+      <c r="G20" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="6">
+      <c r="H20" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="6">
+      <c r="I20" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -818,10 +866,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -865,28 +913,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="6">
+      <c r="A25" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="6">
+      <c r="B25" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="6">
+      <c r="C25" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="6">
+      <c r="E25" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="6">
+      <c r="F25" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="6">
+      <c r="G25" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="6">
+      <c r="H25" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -911,28 +959,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="6">
+      <c r="B27" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="6">
+      <c r="C27" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="6">
+      <c r="D27" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="6">
+      <c r="E27" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="6">
+      <c r="F27" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="6">
+      <c r="G27" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="6">
+      <c r="H27" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="6">
+      <c r="I27" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1020,10 +1068,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1067,28 +1115,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="6">
+      <c r="A32" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="B32" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="6">
+      <c r="C32" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="6">
+      <c r="E32" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="6">
+      <c r="F32" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="6">
+      <c r="G32" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="6">
+      <c r="H32" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1113,28 +1161,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="6">
+      <c r="B34" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="6">
+      <c r="C34" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="6">
+      <c r="D34" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="6">
+      <c r="E34" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="6">
+      <c r="F34" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="6">
+      <c r="G34" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="6">
+      <c r="H34" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="6">
+      <c r="I34" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1222,10 +1270,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="J37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1269,28 +1317,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="6">
+      <c r="A39" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="6">
+      <c r="B39" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="6">
+      <c r="C39" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="6">
+      <c r="E39" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="6">
+      <c r="F39" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="6">
+      <c r="G39" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="6">
+      <c r="H39" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1315,28 +1363,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="6">
+      <c r="B41" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="6">
+      <c r="C41" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="6">
+      <c r="D41" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="6">
+      <c r="E41" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="6">
+      <c r="F41" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="6">
+      <c r="G41" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="6">
+      <c r="H41" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="6">
+      <c r="I41" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1424,10 +1472,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="6" t="s">
+      <c r="J44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1471,28 +1519,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="6">
+      <c r="A46" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="6">
+      <c r="B46" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="6">
+      <c r="C46" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="6">
+      <c r="E46" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="6">
+      <c r="F46" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="6">
+      <c r="G46" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="6">
+      <c r="H46" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1517,28 +1565,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="6">
+      <c r="B48" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="6">
+      <c r="C48" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="6">
+      <c r="D48" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="6">
+      <c r="E48" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="6">
+      <c r="F48" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="6">
+      <c r="G48" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="6">
+      <c r="H48" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="6">
+      <c r="I48" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1626,10 +1674,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="6" t="s">
+      <c r="J51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1673,28 +1721,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="6">
+      <c r="A53" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="6">
+      <c r="B53" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="6">
+      <c r="C53" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="6">
+      <c r="E53" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="6">
+      <c r="F53" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="6">
+      <c r="G53" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="6">
+      <c r="H53" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1719,28 +1767,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="6">
+      <c r="B55" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="6">
+      <c r="C55" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="6">
+      <c r="D55" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="6">
+      <c r="E55" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="6">
+      <c r="F55" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="6">
+      <c r="G55" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="6">
+      <c r="H55" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="6">
+      <c r="I55" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1828,10 +1876,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="6" t="s">
+      <c r="J58" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1875,28 +1923,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="6">
+      <c r="A60" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="6">
+      <c r="B60" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="6">
+      <c r="C60" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="6">
+      <c r="E60" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="6">
+      <c r="F60" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="6">
+      <c r="G60" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="6">
+      <c r="H60" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1921,28 +1969,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="6">
+      <c r="B62" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="6">
+      <c r="C62" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="6">
+      <c r="D62" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="6">
+      <c r="E62" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="6">
+      <c r="F62" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="6">
+      <c r="G62" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="6">
+      <c r="H62" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="6">
+      <c r="I62" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2030,10 +2078,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="6" t="s">
+      <c r="J65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2077,28 +2125,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="6">
+      <c r="A67" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="6">
+      <c r="B67" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="6">
+      <c r="C67" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="6">
+      <c r="E67" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="6">
+      <c r="F67" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="6">
+      <c r="G67" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="6">
+      <c r="H67" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2123,28 +2171,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="6">
+      <c r="B69" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="6">
+      <c r="C69" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="6">
+      <c r="D69" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="6">
+      <c r="E69" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="6">
+      <c r="F69" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="6">
+      <c r="G69" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="6">
+      <c r="H69" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="6">
+      <c r="I69" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2435,10 +2483,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="6" t="s">
+      <c r="J79" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2482,28 +2530,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="6">
+      <c r="A81" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="6">
+      <c r="B81" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="6">
+      <c r="C81" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="6">
+      <c r="E81" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="6">
+      <c r="F81" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="6">
+      <c r="G81" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="6">
+      <c r="H81" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2528,28 +2576,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="6">
+      <c r="B83" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="6">
+      <c r="C83" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="6">
+      <c r="D83" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="6">
+      <c r="E83" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="6">
+      <c r="F83" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="6">
+      <c r="G83" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="6">
+      <c r="H83" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="6">
+      <c r="I83" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2637,10 +2685,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="6" t="s">
+      <c r="J86" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2684,28 +2732,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="6">
+      <c r="A88" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="6">
+      <c r="B88" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="6">
+      <c r="C88" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="6">
+      <c r="E88" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="6">
+      <c r="F88" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="6">
+      <c r="G88" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="6">
+      <c r="H88" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2730,28 +2778,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="6">
+      <c r="B90" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="6">
+      <c r="C90" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="6">
+      <c r="D90" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="6">
+      <c r="E90" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="6">
+      <c r="F90" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="6">
+      <c r="G90" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="6">
+      <c r="H90" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="6">
+      <c r="I90" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2984,10 +3032,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="6" t="s">
+      <c r="J98" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3031,28 +3079,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="6">
+      <c r="A100" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="6">
+      <c r="B100" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="6">
+      <c r="C100" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="6">
+      <c r="E100" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="6">
+      <c r="F100" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="6">
+      <c r="G100" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="6">
+      <c r="H100" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3077,28 +3125,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="6">
+      <c r="B102" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="6">
+      <c r="C102" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="6">
+      <c r="D102" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="6">
+      <c r="E102" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="6">
+      <c r="F102" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="6">
+      <c r="G102" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="6">
+      <c r="H102" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="6">
+      <c r="I102" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3186,10 +3234,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="6" t="s">
+      <c r="J105" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3233,28 +3281,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="6">
+      <c r="A107" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="6">
+      <c r="B107" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="6">
+      <c r="C107" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="6">
+      <c r="E107" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="6">
+      <c r="F107" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="6">
+      <c r="G107" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="6">
+      <c r="H107" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3279,28 +3327,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="6">
+      <c r="B109" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="6">
+      <c r="C109" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="6">
+      <c r="D109" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="6">
+      <c r="E109" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="6">
+      <c r="F109" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="6">
+      <c r="G109" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="6">
+      <c r="H109" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="6">
+      <c r="I109" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3388,10 +3436,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="6" t="s">
+      <c r="J112" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3435,28 +3483,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="6">
+      <c r="A114" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="6">
+      <c r="B114" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="6">
+      <c r="C114" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="6">
+      <c r="E114" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="6">
+      <c r="F114" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="6">
+      <c r="G114" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="6">
+      <c r="H114" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3481,28 +3529,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="6">
+      <c r="B116" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="6">
+      <c r="C116" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="6">
+      <c r="D116" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="6">
+      <c r="E116" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="6">
+      <c r="F116" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="6">
+      <c r="G116" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="6">
+      <c r="H116" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="6">
+      <c r="I116" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3619,10 +3667,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="6" t="s">
+      <c r="J120" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3666,28 +3714,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="6">
+      <c r="A122" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="6">
+      <c r="B122" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="6">
+      <c r="C122" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="6">
+      <c r="E122" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="6">
+      <c r="F122" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="6">
+      <c r="G122" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="6">
+      <c r="H122" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3712,28 +3760,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="6">
+      <c r="B124" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="6">
+      <c r="C124" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="6">
+      <c r="D124" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="6">
+      <c r="E124" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="6">
+      <c r="F124" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="6">
+      <c r="G124" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="6">
+      <c r="H124" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="6">
+      <c r="I124" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3821,10 +3869,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="6" t="s">
+      <c r="J127" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3868,28 +3916,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="6">
+      <c r="A129" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="6">
+      <c r="B129" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="6">
+      <c r="C129" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="6">
+      <c r="E129" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="6">
+      <c r="F129" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="6">
+      <c r="G129" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="6">
+      <c r="H129" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3914,28 +3962,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="6">
+      <c r="B131" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="6">
+      <c r="C131" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="6">
+      <c r="D131" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="6">
+      <c r="E131" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="6">
+      <c r="F131" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="6">
+      <c r="G131" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="6">
+      <c r="H131" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="6">
+      <c r="I131" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4023,10 +4071,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="6" t="s">
+      <c r="J134" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4070,28 +4118,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="6">
+      <c r="A136" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="6">
+      <c r="B136" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="6">
+      <c r="C136" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="6">
+      <c r="E136" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="6">
+      <c r="F136" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="6">
+      <c r="G136" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="6">
+      <c r="H136" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4116,28 +4164,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="6">
+      <c r="B138" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="6">
+      <c r="C138" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="6">
+      <c r="D138" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="6">
+      <c r="E138" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="6">
+      <c r="F138" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="6">
+      <c r="G138" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="6">
+      <c r="H138" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="6">
+      <c r="I138" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4225,10 +4273,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="6" t="s">
+      <c r="J141" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4272,28 +4320,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="6">
+      <c r="A143" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="6">
+      <c r="B143" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="6">
+      <c r="C143" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="6">
+      <c r="E143" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="6">
+      <c r="F143" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="6">
+      <c r="G143" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="6">
+      <c r="H143" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4318,28 +4366,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="6">
+      <c r="B145" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="6">
+      <c r="C145" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="6">
+      <c r="D145" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="6">
+      <c r="E145" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="6">
+      <c r="F145" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="6">
+      <c r="G145" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="6">
+      <c r="H145" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="6">
+      <c r="I145" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4543,10 +4591,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="6" t="s">
+      <c r="J152" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4590,28 +4638,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="6">
+      <c r="A154" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="6">
+      <c r="B154" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="6">
+      <c r="C154" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="6">
+      <c r="E154" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="6">
+      <c r="F154" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="6">
+      <c r="G154" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="6">
+      <c r="H154" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4636,28 +4684,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="6">
+      <c r="B156" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="6">
+      <c r="C156" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="6">
+      <c r="D156" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="6">
+      <c r="E156" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="6">
+      <c r="F156" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="6">
+      <c r="G156" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="6">
+      <c r="H156" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="6">
+      <c r="I156" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4774,10 +4822,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="6" t="s">
+      <c r="J160" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4821,28 +4869,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="6">
+      <c r="A162" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="6">
+      <c r="B162" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="6">
+      <c r="C162" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="6">
+      <c r="E162" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="6">
+      <c r="F162" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="6">
+      <c r="G162" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="6">
+      <c r="H162" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4867,28 +4915,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="6">
+      <c r="B164" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="6">
+      <c r="C164" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="6">
+      <c r="D164" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="6">
+      <c r="E164" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="6">
+      <c r="F164" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="6">
+      <c r="G164" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="6">
+      <c r="H164" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="6">
+      <c r="I164" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4976,10 +5024,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="6" t="s">
+      <c r="J167" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5023,28 +5071,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="6">
+      <c r="A169" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="6">
+      <c r="B169" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="6">
+      <c r="C169" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="6">
+      <c r="E169" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="6">
+      <c r="F169" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="6">
+      <c r="G169" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="6">
+      <c r="H169" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5069,28 +5117,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="6">
+      <c r="B171" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="6">
+      <c r="C171" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="6">
+      <c r="D171" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="6">
+      <c r="E171" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="6">
+      <c r="F171" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="6">
+      <c r="G171" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="6">
+      <c r="H171" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="6">
+      <c r="I171" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5207,10 +5255,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="6" t="s">
+      <c r="J175" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5254,28 +5302,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="6">
+      <c r="A177" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="6">
+      <c r="B177" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="6">
+      <c r="C177" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="6">
+      <c r="E177" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="6">
+      <c r="F177" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="6">
+      <c r="G177" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="6">
+      <c r="H177" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5300,28 +5348,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="6">
+      <c r="B179" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="6">
+      <c r="C179" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="6">
+      <c r="D179" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="6">
+      <c r="E179" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="6">
+      <c r="F179" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="6">
+      <c r="G179" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="6">
+      <c r="H179" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="6">
+      <c r="I179" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5409,10 +5457,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="6" t="s">
+      <c r="J182" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5456,28 +5504,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="6">
+      <c r="A184" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="6">
+      <c r="B184" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="6">
+      <c r="C184" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="6">
+      <c r="E184" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="6">
+      <c r="F184" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="6">
+      <c r="G184" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="6">
+      <c r="H184" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5502,28 +5550,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="6">
+      <c r="B186" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="6">
+      <c r="C186" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="6">
+      <c r="D186" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="6">
+      <c r="E186" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="6">
+      <c r="F186" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="6">
+      <c r="G186" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="6">
+      <c r="H186" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="6">
+      <c r="I186" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5669,10 +5717,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="6" t="s">
+      <c r="J191" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5716,28 +5764,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="6">
+      <c r="A193" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="6">
+      <c r="B193" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="6">
+      <c r="C193" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="6">
+      <c r="E193" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="6">
+      <c r="F193" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="6">
+      <c r="G193" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="6">
+      <c r="H193" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5762,28 +5810,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="6">
+      <c r="B195" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="6">
+      <c r="C195" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="6">
+      <c r="D195" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="6">
+      <c r="E195" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="6">
+      <c r="F195" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="6">
+      <c r="G195" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="6">
+      <c r="H195" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="6">
+      <c r="I195" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5919,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="6" t="s">
+      <c r="J198" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5918,28 +5966,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="6">
+      <c r="A200" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="6">
+      <c r="B200" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="6">
+      <c r="C200" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="6">
+      <c r="E200" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="6">
+      <c r="F200" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="6">
+      <c r="G200" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="6">
+      <c r="H200" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +6012,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="6">
+      <c r="B202" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="6">
+      <c r="C202" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="6">
+      <c r="D202" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="6">
+      <c r="E202" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="6">
+      <c r="F202" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="6">
+      <c r="G202" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="6">
+      <c r="H202" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="6">
+      <c r="I202" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6073,10 +6121,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="6" t="s">
+      <c r="J205" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6120,28 +6168,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="6">
+      <c r="A207" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="6">
+      <c r="B207" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="6">
+      <c r="C207" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="6">
+      <c r="E207" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="6">
+      <c r="F207" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="6">
+      <c r="G207" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="6">
+      <c r="H207" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6166,28 +6214,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="6">
+      <c r="B209" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="6">
+      <c r="C209" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="6">
+      <c r="D209" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="6">
+      <c r="E209" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="6">
+      <c r="F209" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="6">
+      <c r="G209" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="6">
+      <c r="H209" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="6">
+      <c r="I209" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6275,10 +6323,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="6" t="s">
+      <c r="J212" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6322,28 +6370,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="6">
+      <c r="A214" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="6">
+      <c r="B214" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="6">
+      <c r="C214" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="6">
+      <c r="E214" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="6">
+      <c r="F214" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="6">
+      <c r="G214" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="6">
+      <c r="H214" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6368,28 +6416,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="6">
+      <c r="B216" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="6">
+      <c r="C216" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="6">
+      <c r="D216" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="6">
+      <c r="E216" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="6">
+      <c r="F216" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="6">
+      <c r="G216" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="6">
+      <c r="H216" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="6">
+      <c r="I216" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6477,10 +6525,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="6" t="s">
+      <c r="J219" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6524,28 +6572,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="6">
+      <c r="A221" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="6">
+      <c r="B221" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="6">
+      <c r="C221" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="6">
+      <c r="E221" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="6">
+      <c r="F221" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="6">
+      <c r="G221" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="6">
+      <c r="H221" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6570,28 +6618,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="6">
+      <c r="B223" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="6">
+      <c r="C223" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="6">
+      <c r="D223" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="6">
+      <c r="E223" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="6">
+      <c r="F223" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="6">
+      <c r="G223" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="6">
+      <c r="H223" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="6">
+      <c r="I223" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6679,10 +6727,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="6" t="s">
+      <c r="J226" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6726,28 +6774,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="6">
+      <c r="A228" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="6">
+      <c r="B228" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="6">
+      <c r="C228" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="6">
+      <c r="E228" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="6">
+      <c r="F228" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="6">
+      <c r="G228" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="6">
+      <c r="H228" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6772,28 +6820,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="6">
+      <c r="B230" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="6">
+      <c r="C230" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="6">
+      <c r="D230" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="6">
+      <c r="E230" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="6">
+      <c r="F230" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="6">
+      <c r="G230" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="6">
+      <c r="H230" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="6">
+      <c r="I230" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6910,10 +6958,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="6" t="s">
+      <c r="J234" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6957,28 +7005,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="6">
+      <c r="A236" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="6">
+      <c r="B236" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="6">
+      <c r="C236" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="6">
+      <c r="E236" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="6">
+      <c r="F236" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="6">
+      <c r="G236" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="6">
+      <c r="H236" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7003,28 +7051,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="6">
+      <c r="B238" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="6">
+      <c r="C238" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="6">
+      <c r="D238" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="6">
+      <c r="E238" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="6">
+      <c r="F238" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="6">
+      <c r="G238" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="6">
+      <c r="H238" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="6">
+      <c r="I238" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7112,10 +7160,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="6" t="s">
+      <c r="J241" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7159,28 +7207,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="6">
+      <c r="A243" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="6">
+      <c r="B243" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="6">
+      <c r="C243" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="6">
+      <c r="E243" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="6">
+      <c r="F243" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="6">
+      <c r="G243" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="6">
+      <c r="H243" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7205,28 +7253,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="6">
+      <c r="B245" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="6">
+      <c r="C245" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="6">
+      <c r="D245" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="6">
+      <c r="E245" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="6">
+      <c r="F245" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="6">
+      <c r="G245" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="6">
+      <c r="H245" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="6">
+      <c r="I245" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7507,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="6" t="s">
+      <c r="J253" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7506,28 +7554,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="6">
+      <c r="A255" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="6">
+      <c r="B255" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="6">
+      <c r="C255" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="6">
+      <c r="E255" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="6">
+      <c r="F255" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="6">
+      <c r="G255" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="6">
+      <c r="H255" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7600,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="6">
+      <c r="B257" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="6">
+      <c r="C257" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="6">
+      <c r="D257" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="6">
+      <c r="E257" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="6">
+      <c r="F257" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="6">
+      <c r="G257" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="6">
+      <c r="H257" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="6">
+      <c r="I257" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7690,10 +7738,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="6" t="s">
+      <c r="J261" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7737,28 +7785,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="6">
+      <c r="A263" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="6">
+      <c r="B263" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="6">
+      <c r="C263" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="6">
+      <c r="E263" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="6">
+      <c r="F263" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="6">
+      <c r="G263" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="6">
+      <c r="H263" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7783,28 +7831,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="6">
+      <c r="B265" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="6">
+      <c r="C265" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="6">
+      <c r="D265" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="6">
+      <c r="E265" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="6">
+      <c r="F265" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="6">
+      <c r="G265" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="6">
+      <c r="H265" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="6">
+      <c r="I265" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7892,10 +7940,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="6" t="s">
+      <c r="J268" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7939,28 +7987,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="6">
+      <c r="A270" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="6">
+      <c r="B270" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="6">
+      <c r="C270" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="6">
+      <c r="E270" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="6">
+      <c r="F270" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="6">
+      <c r="G270" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="6">
+      <c r="H270" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7985,28 +8033,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="6">
+      <c r="B272" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="6">
+      <c r="C272" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="6">
+      <c r="D272" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="6">
+      <c r="E272" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="6">
+      <c r="F272" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="6">
+      <c r="G272" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="6">
+      <c r="H272" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="6">
+      <c r="I272" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8094,10 +8142,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="6" t="s">
+      <c r="J275" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8141,28 +8189,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="6">
+      <c r="A277" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="6">
+      <c r="B277" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="6">
+      <c r="C277" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="6">
+      <c r="E277" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="6">
+      <c r="F277" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="6">
+      <c r="G277" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="6">
+      <c r="H277" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8187,28 +8235,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="6">
+      <c r="B279" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="6">
+      <c r="C279" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="6">
+      <c r="D279" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="6">
+      <c r="E279" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="6">
+      <c r="F279" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="6">
+      <c r="G279" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="6">
+      <c r="H279" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="6">
+      <c r="I279" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8315,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="6" t="s">
+      <c r="J281" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9296" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12616" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +234,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +261,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="19" customFormat="true">
+      <c r="A1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="19">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +308,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +354,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -433,10 +463,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -480,28 +510,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="14">
+      <c r="A10" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B10" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="14">
+      <c r="C10" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="14">
+      <c r="E10" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="14">
+      <c r="F10" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="14">
+      <c r="G10" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="14">
+      <c r="H10" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -526,28 +556,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="14">
+      <c r="C12" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="14">
+      <c r="D12" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="14">
+      <c r="E12" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="14">
+      <c r="F12" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="14">
+      <c r="G12" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="14">
+      <c r="I12" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -664,10 +694,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="14" t="s">
+      <c r="J16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -711,28 +741,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="14">
+      <c r="A18" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="14">
+      <c r="B18" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="14">
+      <c r="C18" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="14">
+      <c r="E18" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="14">
+      <c r="F18" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="14">
+      <c r="G18" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="14">
+      <c r="H18" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -757,28 +787,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="14">
+      <c r="B20" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="14">
+      <c r="C20" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="14">
+      <c r="D20" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="14">
+      <c r="E20" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="14">
+      <c r="F20" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="14">
+      <c r="G20" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="14">
+      <c r="H20" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="14">
+      <c r="I20" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -866,10 +896,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="14" t="s">
+      <c r="J23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -913,28 +943,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="14">
+      <c r="A25" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="14">
+      <c r="B25" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="14">
+      <c r="C25" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="14">
+      <c r="E25" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="14">
+      <c r="F25" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="14">
+      <c r="G25" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="14">
+      <c r="H25" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -959,28 +989,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="14">
+      <c r="B27" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="14">
+      <c r="C27" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="14">
+      <c r="D27" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="14">
+      <c r="E27" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="14">
+      <c r="F27" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="14">
+      <c r="G27" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="14">
+      <c r="H27" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="14">
+      <c r="I27" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1068,10 +1098,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="14" t="s">
+      <c r="J30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1115,28 +1145,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="14">
+      <c r="A32" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="14">
+      <c r="B32" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="14">
+      <c r="C32" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="14">
+      <c r="E32" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="14">
+      <c r="F32" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="14">
+      <c r="G32" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="14">
+      <c r="H32" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1161,28 +1191,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="14">
+      <c r="B34" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="14">
+      <c r="C34" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="14">
+      <c r="D34" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="14">
+      <c r="E34" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="14">
+      <c r="F34" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="14">
+      <c r="G34" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="14">
+      <c r="H34" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="14">
+      <c r="I34" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1270,10 +1300,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="14" t="s">
+      <c r="J37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1317,28 +1347,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="14">
+      <c r="A39" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="14">
+      <c r="B39" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="14">
+      <c r="C39" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="14">
+      <c r="E39" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="14">
+      <c r="F39" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="14">
+      <c r="G39" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="14">
+      <c r="H39" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1363,28 +1393,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="14">
+      <c r="B41" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="14">
+      <c r="C41" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="14">
+      <c r="D41" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="14">
+      <c r="E41" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="14">
+      <c r="F41" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="14">
+      <c r="G41" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="14">
+      <c r="H41" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="14">
+      <c r="I41" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1472,10 +1502,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="14" t="s">
+      <c r="J44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1519,28 +1549,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="14">
+      <c r="A46" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="14">
+      <c r="B46" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="14">
+      <c r="C46" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="14">
+      <c r="E46" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="14">
+      <c r="F46" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="14">
+      <c r="G46" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="14">
+      <c r="H46" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1565,28 +1595,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="14">
+      <c r="B48" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="14">
+      <c r="C48" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="14">
+      <c r="D48" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="14">
+      <c r="E48" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="14">
+      <c r="F48" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="14">
+      <c r="G48" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="14">
+      <c r="H48" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="14">
+      <c r="I48" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1674,10 +1704,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="14" t="s">
+      <c r="J51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1721,28 +1751,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="14">
+      <c r="A53" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="14">
+      <c r="B53" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="14">
+      <c r="C53" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="14">
+      <c r="E53" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="14">
+      <c r="F53" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="14">
+      <c r="G53" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="14">
+      <c r="H53" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1767,28 +1797,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="14">
+      <c r="B55" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="14">
+      <c r="C55" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="14">
+      <c r="D55" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="14">
+      <c r="E55" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="14">
+      <c r="F55" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="14">
+      <c r="G55" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="14">
+      <c r="H55" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="14">
+      <c r="I55" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1876,10 +1906,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="14" t="s">
+      <c r="J58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1923,28 +1953,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="14">
+      <c r="A60" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="14">
+      <c r="B60" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="14">
+      <c r="C60" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="14">
+      <c r="E60" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="14">
+      <c r="F60" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="14">
+      <c r="G60" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="14">
+      <c r="H60" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1969,28 +1999,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="14">
+      <c r="B62" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="14">
+      <c r="C62" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="14">
+      <c r="D62" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="14">
+      <c r="E62" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="14">
+      <c r="F62" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="14">
+      <c r="G62" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="14">
+      <c r="H62" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="14">
+      <c r="I62" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2078,10 +2108,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="14" t="s">
+      <c r="J65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2125,28 +2155,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="14">
+      <c r="A67" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="14">
+      <c r="B67" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="14">
+      <c r="C67" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="14">
+      <c r="E67" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="14">
+      <c r="F67" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="14">
+      <c r="G67" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="14">
+      <c r="H67" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2171,28 +2201,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="14">
+      <c r="B69" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="14">
+      <c r="C69" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="14">
+      <c r="D69" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="14">
+      <c r="E69" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="14">
+      <c r="F69" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="14">
+      <c r="G69" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="14">
+      <c r="H69" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="14">
+      <c r="I69" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2483,10 +2513,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="14" t="s">
+      <c r="J79" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2530,28 +2560,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="14">
+      <c r="A81" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="14">
+      <c r="B81" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="14">
+      <c r="C81" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="14">
+      <c r="E81" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="14">
+      <c r="F81" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="14">
+      <c r="G81" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="14">
+      <c r="H81" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2576,28 +2606,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="14">
+      <c r="B83" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="14">
+      <c r="C83" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="14">
+      <c r="D83" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="14">
+      <c r="E83" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="14">
+      <c r="F83" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="14">
+      <c r="G83" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="14">
+      <c r="H83" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="14">
+      <c r="I83" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2685,10 +2715,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="14" t="s">
+      <c r="J86" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2732,28 +2762,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="14">
+      <c r="A88" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="14">
+      <c r="B88" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="14">
+      <c r="C88" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="14">
+      <c r="E88" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="14">
+      <c r="F88" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="14">
+      <c r="G88" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="14">
+      <c r="H88" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2778,28 +2808,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="14">
+      <c r="B90" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="14">
+      <c r="C90" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="14">
+      <c r="D90" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="14">
+      <c r="E90" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="14">
+      <c r="F90" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="14">
+      <c r="G90" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="14">
+      <c r="H90" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="14">
+      <c r="I90" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3032,10 +3062,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="14" t="s">
+      <c r="J98" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3079,28 +3109,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="14">
+      <c r="A100" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="14">
+      <c r="B100" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="14">
+      <c r="C100" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="14">
+      <c r="E100" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="14">
+      <c r="F100" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="14">
+      <c r="G100" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="14">
+      <c r="H100" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3125,28 +3155,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="14">
+      <c r="B102" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="14">
+      <c r="C102" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="14">
+      <c r="D102" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="14">
+      <c r="E102" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="14">
+      <c r="F102" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="14">
+      <c r="G102" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="14">
+      <c r="H102" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="14">
+      <c r="I102" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3234,10 +3264,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="14" t="s">
+      <c r="J105" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3281,28 +3311,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="14">
+      <c r="A107" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="14">
+      <c r="B107" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="14">
+      <c r="C107" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="14">
+      <c r="E107" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="14">
+      <c r="F107" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="14">
+      <c r="G107" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="14">
+      <c r="H107" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3327,28 +3357,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="14">
+      <c r="B109" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="14">
+      <c r="C109" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="14">
+      <c r="D109" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="14">
+      <c r="E109" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="14">
+      <c r="F109" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="14">
+      <c r="G109" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="14">
+      <c r="H109" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="14">
+      <c r="I109" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3436,10 +3466,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="14" t="s">
+      <c r="J112" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3483,28 +3513,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="14">
+      <c r="A114" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="14">
+      <c r="B114" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="14">
+      <c r="C114" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="14">
+      <c r="E114" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="14">
+      <c r="F114" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="14">
+      <c r="G114" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="14">
+      <c r="H114" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3529,28 +3559,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="14">
+      <c r="B116" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="14">
+      <c r="C116" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="14">
+      <c r="D116" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="14">
+      <c r="E116" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="14">
+      <c r="F116" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="14">
+      <c r="G116" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="14">
+      <c r="H116" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="14">
+      <c r="I116" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3667,10 +3697,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="14" t="s">
+      <c r="J120" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3714,28 +3744,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="14">
+      <c r="A122" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="14">
+      <c r="B122" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="14">
+      <c r="C122" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="14">
+      <c r="E122" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="14">
+      <c r="F122" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="14">
+      <c r="G122" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="14">
+      <c r="H122" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3760,28 +3790,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="14">
+      <c r="C124" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="14">
+      <c r="D124" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="14">
+      <c r="E124" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="14">
+      <c r="G124" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="14">
+      <c r="H124" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="14">
+      <c r="I124" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3869,10 +3899,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="14" t="s">
+      <c r="J127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3916,28 +3946,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="14">
+      <c r="A129" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="14">
+      <c r="B129" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="14">
+      <c r="C129" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="14">
+      <c r="E129" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="14">
+      <c r="F129" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="14">
+      <c r="G129" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="14">
+      <c r="H129" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3962,28 +3992,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="14">
+      <c r="B131" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="14">
+      <c r="C131" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="14">
+      <c r="D131" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="14">
+      <c r="E131" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="14">
+      <c r="F131" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="14">
+      <c r="G131" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="14">
+      <c r="H131" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="14">
+      <c r="I131" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4071,10 +4101,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="14" t="s">
+      <c r="J134" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4118,28 +4148,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="14">
+      <c r="A136" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="14">
+      <c r="B136" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="14">
+      <c r="C136" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="14">
+      <c r="E136" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="14">
+      <c r="F136" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="14">
+      <c r="G136" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="14">
+      <c r="H136" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4164,28 +4194,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="14">
+      <c r="B138" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="14">
+      <c r="C138" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="14">
+      <c r="D138" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="14">
+      <c r="E138" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="14">
+      <c r="F138" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="14">
+      <c r="G138" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="14">
+      <c r="H138" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="14">
+      <c r="I138" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4273,10 +4303,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="14" t="s">
+      <c r="J141" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4320,28 +4350,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="14">
+      <c r="A143" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="14">
+      <c r="B143" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="14">
+      <c r="C143" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="14">
+      <c r="E143" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="14">
+      <c r="F143" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="14">
+      <c r="G143" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="14">
+      <c r="H143" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4366,28 +4396,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="14">
+      <c r="B145" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="14">
+      <c r="C145" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="14">
+      <c r="D145" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="14">
+      <c r="E145" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="14">
+      <c r="F145" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="14">
+      <c r="G145" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="14">
+      <c r="H145" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="14">
+      <c r="I145" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4591,10 +4621,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="14" t="s">
+      <c r="J152" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4638,28 +4668,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="14">
+      <c r="A154" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="14">
+      <c r="B154" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="14">
+      <c r="C154" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="14">
+      <c r="E154" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="14">
+      <c r="F154" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="14">
+      <c r="G154" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="14">
+      <c r="H154" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4684,28 +4714,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="14">
+      <c r="B156" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="14">
+      <c r="C156" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="14">
+      <c r="D156" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="14">
+      <c r="E156" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="14">
+      <c r="F156" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="14">
+      <c r="G156" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="14">
+      <c r="H156" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="14">
+      <c r="I156" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4822,10 +4852,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="14" t="s">
+      <c r="J160" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4869,28 +4899,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="14">
+      <c r="A162" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="14">
+      <c r="B162" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="14">
+      <c r="C162" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="14">
+      <c r="E162" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="14">
+      <c r="F162" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="14">
+      <c r="G162" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="14">
+      <c r="H162" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4915,28 +4945,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="14">
+      <c r="B164" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="14">
+      <c r="C164" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="14">
+      <c r="D164" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="14">
+      <c r="E164" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="14">
+      <c r="F164" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="14">
+      <c r="G164" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="14">
+      <c r="H164" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="14">
+      <c r="I164" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5024,10 +5054,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="14" t="s">
+      <c r="J167" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5071,28 +5101,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="14">
+      <c r="A169" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="14">
+      <c r="B169" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="14">
+      <c r="C169" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="14">
+      <c r="E169" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="14">
+      <c r="F169" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="14">
+      <c r="G169" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="14">
+      <c r="H169" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5117,28 +5147,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="14">
+      <c r="B171" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="14">
+      <c r="C171" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="14">
+      <c r="D171" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="14">
+      <c r="E171" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="14">
+      <c r="F171" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="14">
+      <c r="G171" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="14">
+      <c r="H171" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="14">
+      <c r="I171" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5255,10 +5285,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="14" t="s">
+      <c r="J175" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5302,28 +5332,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="14">
+      <c r="A177" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="14">
+      <c r="B177" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="14">
+      <c r="C177" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="14">
+      <c r="E177" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="14">
+      <c r="F177" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="14">
+      <c r="G177" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="14">
+      <c r="H177" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5348,28 +5378,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="14">
+      <c r="B179" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="14">
+      <c r="C179" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="14">
+      <c r="D179" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="14">
+      <c r="E179" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="14">
+      <c r="F179" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="14">
+      <c r="G179" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="14">
+      <c r="H179" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="14">
+      <c r="I179" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5457,10 +5487,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="14" t="s">
+      <c r="J182" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5504,28 +5534,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="14">
+      <c r="A184" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="14">
+      <c r="B184" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="14">
+      <c r="C184" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="14">
+      <c r="E184" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="14">
+      <c r="F184" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="14">
+      <c r="G184" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="14">
+      <c r="H184" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5550,28 +5580,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="14">
+      <c r="B186" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="14">
+      <c r="C186" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="14">
+      <c r="D186" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="14">
+      <c r="E186" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="14">
+      <c r="F186" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="14">
+      <c r="G186" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="14">
+      <c r="H186" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="14">
+      <c r="I186" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5717,10 +5747,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="14" t="s">
+      <c r="J191" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5764,28 +5794,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="14">
+      <c r="A193" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="14">
+      <c r="B193" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="14">
+      <c r="C193" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="14">
+      <c r="E193" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="14">
+      <c r="F193" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="14">
+      <c r="G193" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="14">
+      <c r="H193" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5810,28 +5840,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="14">
+      <c r="B195" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="14">
+      <c r="C195" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="14">
+      <c r="D195" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="14">
+      <c r="E195" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="14">
+      <c r="F195" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="14">
+      <c r="G195" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="14">
+      <c r="H195" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="14">
+      <c r="I195" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5919,10 +5949,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="14" t="s">
+      <c r="J198" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5966,28 +5996,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="14">
+      <c r="A200" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="14">
+      <c r="B200" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="14">
+      <c r="C200" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="14">
+      <c r="E200" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="14">
+      <c r="F200" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="14">
+      <c r="G200" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="14">
+      <c r="H200" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6012,28 +6042,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="14">
+      <c r="B202" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="14">
+      <c r="C202" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="14">
+      <c r="D202" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="14">
+      <c r="E202" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="14">
+      <c r="F202" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="14">
+      <c r="G202" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="14">
+      <c r="H202" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="14">
+      <c r="I202" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6121,10 +6151,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="14" t="s">
+      <c r="J205" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6168,28 +6198,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="14">
+      <c r="A207" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="14">
+      <c r="B207" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="14">
+      <c r="C207" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="14">
+      <c r="E207" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="14">
+      <c r="F207" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="14">
+      <c r="G207" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="14">
+      <c r="H207" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6214,28 +6244,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="14">
+      <c r="B209" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="14">
+      <c r="C209" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="14">
+      <c r="D209" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="14">
+      <c r="E209" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="14">
+      <c r="F209" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="14">
+      <c r="G209" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="14">
+      <c r="H209" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="14">
+      <c r="I209" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6323,10 +6353,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="14" t="s">
+      <c r="J212" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6370,28 +6400,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="14">
+      <c r="A214" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="14">
+      <c r="B214" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="14">
+      <c r="C214" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="14">
+      <c r="E214" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="14">
+      <c r="F214" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="14">
+      <c r="G214" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="14">
+      <c r="H214" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6416,28 +6446,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="14">
+      <c r="B216" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="14">
+      <c r="C216" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="14">
+      <c r="D216" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="14">
+      <c r="E216" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="14">
+      <c r="F216" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="14">
+      <c r="G216" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="14">
+      <c r="H216" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="14">
+      <c r="I216" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6525,10 +6555,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="14" t="s">
+      <c r="J219" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6572,28 +6602,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="14">
+      <c r="A221" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="14">
+      <c r="B221" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="14">
+      <c r="C221" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="14">
+      <c r="E221" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="14">
+      <c r="F221" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="14">
+      <c r="G221" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="14">
+      <c r="H221" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6618,28 +6648,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="14">
+      <c r="B223" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="14">
+      <c r="C223" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="14">
+      <c r="D223" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="14">
+      <c r="E223" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="14">
+      <c r="F223" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="14">
+      <c r="G223" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="14">
+      <c r="H223" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="14">
+      <c r="I223" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6727,10 +6757,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="14" t="s">
+      <c r="J226" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6774,28 +6804,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="14">
+      <c r="A228" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="14">
+      <c r="B228" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="14">
+      <c r="C228" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="14">
+      <c r="E228" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="14">
+      <c r="F228" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="14">
+      <c r="G228" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="14">
+      <c r="H228" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6820,28 +6850,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="14">
+      <c r="B230" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="14">
+      <c r="C230" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="14">
+      <c r="D230" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="14">
+      <c r="E230" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="14">
+      <c r="F230" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="14">
+      <c r="G230" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="14">
+      <c r="H230" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="14">
+      <c r="I230" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6958,10 +6988,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="14" t="s">
+      <c r="J234" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -7005,28 +7035,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="14">
+      <c r="A236" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="14">
+      <c r="B236" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="14">
+      <c r="C236" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="14">
+      <c r="E236" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="14">
+      <c r="F236" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="14">
+      <c r="G236" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="14">
+      <c r="H236" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7051,28 +7081,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="14">
+      <c r="B238" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="14">
+      <c r="C238" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="14">
+      <c r="D238" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="14">
+      <c r="E238" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="14">
+      <c r="F238" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="14">
+      <c r="G238" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="14">
+      <c r="H238" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="14">
+      <c r="I238" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7160,10 +7190,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="14" t="s">
+      <c r="J241" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7207,28 +7237,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="14">
+      <c r="A243" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="14">
+      <c r="B243" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="14">
+      <c r="C243" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="14">
+      <c r="E243" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="14">
+      <c r="F243" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="14">
+      <c r="G243" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="14">
+      <c r="H243" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7253,28 +7283,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="14">
+      <c r="B245" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="14">
+      <c r="C245" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="14">
+      <c r="D245" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="14">
+      <c r="E245" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="14">
+      <c r="F245" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="14">
+      <c r="G245" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="14">
+      <c r="H245" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="14">
+      <c r="I245" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7507,10 +7537,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="14" t="s">
+      <c r="J253" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7554,28 +7584,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="14">
+      <c r="A255" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="14">
+      <c r="B255" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="14">
+      <c r="C255" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="14">
+      <c r="E255" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="14">
+      <c r="F255" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="14">
+      <c r="G255" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="14">
+      <c r="H255" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7600,28 +7630,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="14">
+      <c r="B257" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="14">
+      <c r="C257" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="14">
+      <c r="D257" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="14">
+      <c r="E257" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="14">
+      <c r="F257" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="14">
+      <c r="G257" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="14">
+      <c r="H257" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="14">
+      <c r="I257" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7738,10 +7768,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="14" t="s">
+      <c r="J261" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7785,28 +7815,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="14">
+      <c r="A263" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="14">
+      <c r="B263" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="14">
+      <c r="C263" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="14">
+      <c r="E263" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="14">
+      <c r="F263" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="14">
+      <c r="G263" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="14">
+      <c r="H263" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7831,28 +7861,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="14">
+      <c r="B265" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="14">
+      <c r="C265" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="14">
+      <c r="D265" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="14">
+      <c r="E265" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="14">
+      <c r="F265" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="14">
+      <c r="G265" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="14">
+      <c r="H265" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="14">
+      <c r="I265" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7940,10 +7970,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="14" t="s">
+      <c r="J268" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7987,28 +8017,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="14">
+      <c r="A270" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="14">
+      <c r="B270" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="14">
+      <c r="C270" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="14">
+      <c r="E270" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="14">
+      <c r="F270" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="14">
+      <c r="G270" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="14">
+      <c r="H270" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8033,28 +8063,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="14">
+      <c r="B272" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="14">
+      <c r="C272" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="14">
+      <c r="D272" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="14">
+      <c r="E272" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="14">
+      <c r="F272" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="14">
+      <c r="G272" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="14">
+      <c r="H272" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="14">
+      <c r="I272" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8142,10 +8172,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="14" t="s">
+      <c r="J275" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8189,28 +8219,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="14">
+      <c r="A277" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="14">
+      <c r="B277" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="14">
+      <c r="C277" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="14">
+      <c r="E277" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="14">
+      <c r="F277" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="14">
+      <c r="G277" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="14">
+      <c r="H277" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8235,28 +8265,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="14">
+      <c r="B279" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="14">
+      <c r="C279" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="14">
+      <c r="D279" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="14">
+      <c r="E279" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="14">
+      <c r="F279" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="14">
+      <c r="G279" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="14">
+      <c r="H279" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="14">
+      <c r="I279" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8315,10 +8345,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="14" t="s">
+      <c r="J281" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
